--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2709.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2709.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167259937703875</v>
+        <v>0.9765523076057434</v>
       </c>
       <c r="B1">
-        <v>2.409162075748824</v>
+        <v>2.722717523574829</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.720315933227539</v>
       </c>
       <c r="D1">
-        <v>2.346331571614204</v>
+        <v>1.194574475288391</v>
       </c>
       <c r="E1">
-        <v>1.215140724691214</v>
+        <v>1.294441223144531</v>
       </c>
     </row>
   </sheetData>
